--- a/Documentacao/Sprints TIS III-noite-2sem2022.xlsx
+++ b/Documentacao/Sprints TIS III-noite-2sem2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\entrevista com o cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\repository\plf-es-2022-2-ti3-6654100-studio-academia\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B794F-B834-414D-88F5-29A861661261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D879212-4862-49CC-9D3B-255AD7D91734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -688,6 +688,33 @@
   </si>
   <si>
     <t xml:space="preserve"> StudioGymApp</t>
+  </si>
+  <si>
+    <t>criar tela de home</t>
+  </si>
+  <si>
+    <t>criar sistema de login(backend)</t>
+  </si>
+  <si>
+    <t>criar front do login (front end)</t>
+  </si>
+  <si>
+    <t>criar sistema de cadastro de usuarios (backend)</t>
+  </si>
+  <si>
+    <t>criar front das tela de cadstros (frontend)</t>
+  </si>
+  <si>
+    <t>criar o ddl do banco</t>
+  </si>
+  <si>
+    <t>criar o banco</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>10h</t>
   </si>
 </sst>
 </file>
@@ -1301,34 +1328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1345,11 +1344,42 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,14 +1397,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3973,15 +4000,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3989,15 +4016,15 @@
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4005,15 +4032,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4021,15 +4048,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4037,15 +4064,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4067,15 +4094,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4100,17 +4127,17 @@
     </row>
     <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="73" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4120,13 +4147,13 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4136,13 +4163,13 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -4152,13 +4179,13 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -4168,13 +4195,13 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="18"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -4184,13 +4211,13 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -5440,16 +5467,16 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="31"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="68" t="s">
+      <c r="B99" s="78"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E99" s="62"/>
-      <c r="F99" s="68" t="s">
+      <c r="E99" s="79"/>
+      <c r="F99" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G99" s="62"/>
+      <c r="G99" s="79"/>
       <c r="H99" s="32" t="s">
         <v>28</v>
       </c>
@@ -5471,12 +5498,12 @@
     </row>
     <row r="100" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="31"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="66" t="s">
+      <c r="B100" s="82"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E100" s="62"/>
+      <c r="E100" s="79"/>
       <c r="F100" s="34" t="s">
         <v>34</v>
       </c>
@@ -5510,12 +5537,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="31"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="66" t="s">
+      <c r="B101" s="82"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="62"/>
+      <c r="E101" s="79"/>
       <c r="F101" s="34" t="s">
         <v>39</v>
       </c>
@@ -5549,12 +5576,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="31"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="66" t="s">
+      <c r="B102" s="82"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="62"/>
+      <c r="E102" s="79"/>
       <c r="F102" s="34"/>
       <c r="G102" s="35" t="s">
         <v>44</v>
@@ -5586,12 +5613,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="31"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="66" t="s">
+      <c r="B103" s="82"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E103" s="62"/>
+      <c r="E103" s="79"/>
       <c r="F103" s="34"/>
       <c r="G103" s="35" t="s">
         <v>47</v>
@@ -5621,12 +5648,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="31"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="66" t="s">
+      <c r="B104" s="82"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="62"/>
+      <c r="E104" s="79"/>
       <c r="F104" s="34"/>
       <c r="G104" s="35" t="s">
         <v>50</v>
@@ -5651,8 +5678,8 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="31"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="62"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="79"/>
       <c r="F105" s="34"/>
       <c r="G105" s="35" t="s">
         <v>65</v>
@@ -5665,8 +5692,8 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="31"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="62"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="79"/>
       <c r="D106" s="39"/>
       <c r="E106" s="34"/>
       <c r="F106" s="34"/>
@@ -6688,22 +6715,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D99:E99"/>
@@ -6715,12 +6732,22 @@
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F14" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -6765,67 +6792,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6841,16 +6868,16 @@
     </row>
     <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="91" t="str">
+      <c r="B7" s="83" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Insira o nome de seu projeto aqui</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6866,15 +6893,15 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -6888,11 +6915,11 @@
       <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="8" t="s">
         <v>16</v>
       </c>
@@ -6910,9 +6937,9 @@
         <f>C11+13</f>
         <v>44815</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="17"/>
       <c r="I11" s="1"/>
     </row>
@@ -6929,9 +6956,9 @@
         <f t="shared" ref="D12:D14" si="1">C12+13</f>
         <v>44829</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="17"/>
       <c r="I12" s="1"/>
     </row>
@@ -6948,9 +6975,9 @@
         <f>C13+20</f>
         <v>44850</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="17"/>
       <c r="I13" s="1"/>
     </row>
@@ -6967,9 +6994,9 @@
         <f t="shared" si="1"/>
         <v>44864</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="86"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="17"/>
       <c r="I14" s="1"/>
     </row>
@@ -7005,9 +7032,9 @@
         <f>C16+13</f>
         <v>44892</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="86"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="17"/>
       <c r="I16" s="1"/>
     </row>
@@ -7036,13 +7063,13 @@
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="86"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="24" t="s">
         <v>23</v>
       </c>
@@ -7053,11 +7080,11 @@
       <c r="B20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="27" t="s">
         <v>24</v>
       </c>
@@ -7068,11 +7095,11 @@
       <c r="B21" s="29">
         <v>0</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="30"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -7090,13 +7117,13 @@
       <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="14" t="s">
         <v>25</v>
       </c>
@@ -7107,13 +7134,13 @@
       <c r="B23" s="29">
         <v>2</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="14" t="s">
         <v>57</v>
       </c>
@@ -7124,13 +7151,13 @@
       <c r="B24" s="11">
         <v>3</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="14" t="s">
         <v>25</v>
       </c>
@@ -7141,13 +7168,13 @@
       <c r="B25" s="29">
         <v>4</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="14" t="s">
         <v>25</v>
       </c>
@@ -7158,13 +7185,13 @@
       <c r="B26" s="11">
         <v>5</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
       <c r="H26" s="14" t="s">
         <v>25</v>
       </c>
@@ -7175,13 +7202,13 @@
       <c r="B27" s="29">
         <v>6</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
       <c r="H27" s="14" t="s">
         <v>25</v>
       </c>
@@ -7192,13 +7219,13 @@
       <c r="B28" s="11">
         <v>7</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="14" t="s">
         <v>25</v>
       </c>
@@ -7209,13 +7236,13 @@
       <c r="B29" s="29">
         <v>8</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
       <c r="H29" s="14" t="s">
         <v>25</v>
       </c>
@@ -7226,13 +7253,13 @@
       <c r="B30" s="11">
         <v>9</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
       <c r="H30" s="14" t="s">
         <v>25</v>
       </c>
@@ -7243,13 +7270,13 @@
       <c r="B31" s="29">
         <v>10</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="14" t="s">
         <v>25</v>
       </c>
@@ -7260,13 +7287,13 @@
       <c r="B32" s="11">
         <v>11</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="65"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="14" t="s">
         <v>25</v>
       </c>
@@ -7277,13 +7304,13 @@
       <c r="B33" s="29">
         <v>12</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="65"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="14" t="s">
         <v>25</v>
       </c>
@@ -7294,13 +7321,13 @@
       <c r="B34" s="11">
         <v>13</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="14" t="s">
         <v>25</v>
       </c>
@@ -7311,13 +7338,13 @@
       <c r="B35" s="29">
         <v>14</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="14" t="s">
         <v>25</v>
       </c>
@@ -7328,13 +7355,13 @@
       <c r="B36" s="11">
         <v>15</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="14" t="s">
         <v>25</v>
       </c>
@@ -7345,13 +7372,13 @@
       <c r="B37" s="29">
         <v>16</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="65"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="14" t="s">
         <v>25</v>
       </c>
@@ -7362,13 +7389,13 @@
       <c r="B38" s="11">
         <v>17</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="14" t="s">
         <v>25</v>
       </c>
@@ -7379,13 +7406,13 @@
       <c r="B39" s="29">
         <v>18</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="14" t="s">
         <v>25</v>
       </c>
@@ -7396,11 +7423,11 @@
       <c r="B40" s="11">
         <v>19</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="14" t="s">
         <v>25</v>
       </c>
@@ -7411,11 +7438,11 @@
       <c r="B41" s="29">
         <v>20</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="14" t="s">
         <v>25</v>
       </c>
@@ -7426,11 +7453,11 @@
       <c r="B42" s="11">
         <v>21</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="14" t="s">
         <v>25</v>
       </c>
@@ -7441,11 +7468,11 @@
       <c r="B43" s="29">
         <v>22</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="14" t="s">
         <v>25</v>
       </c>
@@ -7456,11 +7483,11 @@
       <c r="B44" s="11">
         <v>23</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="14" t="s">
         <v>25</v>
       </c>
@@ -7471,11 +7498,11 @@
       <c r="B45" s="29">
         <v>24</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="65"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="14" t="s">
         <v>25</v>
       </c>
@@ -7486,11 +7513,11 @@
       <c r="B46" s="11">
         <v>25</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="14" t="s">
         <v>25</v>
       </c>
@@ -7501,11 +7528,11 @@
       <c r="B47" s="29">
         <v>26</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="14" t="s">
         <v>25</v>
       </c>
@@ -7516,11 +7543,11 @@
       <c r="B48" s="11">
         <v>27</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="14" t="s">
         <v>25</v>
       </c>
@@ -7531,11 +7558,11 @@
       <c r="B49" s="29">
         <v>28</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="14" t="s">
         <v>25</v>
       </c>
@@ -7546,11 +7573,11 @@
       <c r="B50" s="11">
         <v>29</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="65"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="14" t="s">
         <v>25</v>
       </c>
@@ -7561,11 +7588,11 @@
       <c r="B51" s="29">
         <v>30</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="14" t="s">
         <v>25</v>
       </c>
@@ -7576,11 +7603,11 @@
       <c r="B52" s="11">
         <v>31</v>
       </c>
-      <c r="C52" s="83"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="14" t="s">
         <v>25</v>
       </c>
@@ -7591,11 +7618,11 @@
       <c r="B53" s="29">
         <v>32</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="14" t="s">
         <v>25</v>
       </c>
@@ -7606,11 +7633,11 @@
       <c r="B54" s="11">
         <v>33</v>
       </c>
-      <c r="C54" s="83"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="14" t="s">
         <v>25</v>
       </c>
@@ -7621,11 +7648,11 @@
       <c r="B55" s="29">
         <v>34</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="14" t="s">
         <v>25</v>
       </c>
@@ -7636,11 +7663,11 @@
       <c r="B56" s="11">
         <v>35</v>
       </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="14" t="s">
         <v>25</v>
       </c>
@@ -7651,11 +7678,11 @@
       <c r="B57" s="29">
         <v>36</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="73"/>
       <c r="H57" s="14" t="s">
         <v>25</v>
       </c>
@@ -7666,11 +7693,11 @@
       <c r="B58" s="11">
         <v>37</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
       <c r="H58" s="14" t="s">
         <v>25</v>
       </c>
@@ -7681,11 +7708,11 @@
       <c r="B59" s="29">
         <v>38</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
       <c r="H59" s="14" t="s">
         <v>25</v>
       </c>
@@ -7696,11 +7723,11 @@
       <c r="B60" s="11">
         <v>39</v>
       </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="65"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="14" t="s">
         <v>25</v>
       </c>
@@ -7711,11 +7738,11 @@
       <c r="B61" s="29">
         <v>40</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="65"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="73"/>
       <c r="H61" s="14" t="s">
         <v>25</v>
       </c>
@@ -7726,11 +7753,11 @@
       <c r="B62" s="11">
         <v>41</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
       <c r="H62" s="14" t="s">
         <v>25</v>
       </c>
@@ -7741,11 +7768,11 @@
       <c r="B63" s="29">
         <v>42</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="65"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="73"/>
       <c r="H63" s="14" t="s">
         <v>25</v>
       </c>
@@ -7756,11 +7783,11 @@
       <c r="B64" s="11">
         <v>43</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="14" t="s">
         <v>25</v>
       </c>
@@ -7771,11 +7798,11 @@
       <c r="B65" s="29">
         <v>44</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="14" t="s">
         <v>25</v>
       </c>
@@ -7786,11 +7813,11 @@
       <c r="B66" s="11">
         <v>45</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="14" t="s">
         <v>25</v>
       </c>
@@ -7801,11 +7828,11 @@
       <c r="B67" s="29">
         <v>46</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="14" t="s">
         <v>25</v>
       </c>
@@ -7816,11 +7843,11 @@
       <c r="B68" s="11">
         <v>47</v>
       </c>
-      <c r="C68" s="83"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="14" t="s">
         <v>25</v>
       </c>
@@ -7831,11 +7858,11 @@
       <c r="B69" s="29">
         <v>48</v>
       </c>
-      <c r="C69" s="83"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="14" t="s">
         <v>25</v>
       </c>
@@ -7846,11 +7873,11 @@
       <c r="B70" s="11">
         <v>49</v>
       </c>
-      <c r="C70" s="83"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="14" t="s">
         <v>25</v>
       </c>
@@ -7861,11 +7888,11 @@
       <c r="B71" s="29">
         <v>50</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="65"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="73"/>
       <c r="H71" s="14" t="s">
         <v>25</v>
       </c>
@@ -7876,11 +7903,11 @@
       <c r="B72" s="11">
         <v>51</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="65"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="73"/>
       <c r="H72" s="14" t="s">
         <v>25</v>
       </c>
@@ -7891,11 +7918,11 @@
       <c r="B73" s="29">
         <v>52</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="14" t="s">
         <v>25</v>
       </c>
@@ -7906,11 +7933,11 @@
       <c r="B74" s="11">
         <v>53</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="14" t="s">
         <v>25</v>
       </c>
@@ -7921,11 +7948,11 @@
       <c r="B75" s="29">
         <v>54</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="14" t="s">
         <v>25</v>
       </c>
@@ -7936,11 +7963,11 @@
       <c r="B76" s="11">
         <v>55</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="14" t="s">
         <v>25</v>
       </c>
@@ -7951,11 +7978,11 @@
       <c r="B77" s="29">
         <v>56</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="14" t="s">
         <v>25</v>
       </c>
@@ -7966,11 +7993,11 @@
       <c r="B78" s="11">
         <v>57</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="14" t="s">
         <v>25</v>
       </c>
@@ -7981,11 +8008,11 @@
       <c r="B79" s="29">
         <v>58</v>
       </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="65"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="73"/>
       <c r="H79" s="14" t="s">
         <v>25</v>
       </c>
@@ -7996,11 +8023,11 @@
       <c r="B80" s="11">
         <v>59</v>
       </c>
-      <c r="C80" s="83"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="65"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
       <c r="H80" s="14" t="s">
         <v>25</v>
       </c>
@@ -8011,11 +8038,11 @@
       <c r="B81" s="29">
         <v>60</v>
       </c>
-      <c r="C81" s="83"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="73"/>
       <c r="H81" s="14" t="s">
         <v>25</v>
       </c>
@@ -8026,11 +8053,11 @@
       <c r="B82" s="11">
         <v>61</v>
       </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="73"/>
       <c r="H82" s="14" t="s">
         <v>25</v>
       </c>
@@ -8041,11 +8068,11 @@
       <c r="B83" s="29">
         <v>62</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="65"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="73"/>
       <c r="H83" s="14" t="s">
         <v>25</v>
       </c>
@@ -8056,11 +8083,11 @@
       <c r="B84" s="11">
         <v>63</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="65"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="14" t="s">
         <v>25</v>
       </c>
@@ -8071,11 +8098,11 @@
       <c r="B85" s="29">
         <v>64</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="73"/>
       <c r="H85" s="14" t="s">
         <v>25</v>
       </c>
@@ -8086,11 +8113,11 @@
       <c r="B86" s="11">
         <v>65</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="14" t="s">
         <v>25</v>
       </c>
@@ -8101,11 +8128,11 @@
       <c r="B87" s="29">
         <v>66</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="73"/>
       <c r="H87" s="14" t="s">
         <v>25</v>
       </c>
@@ -8116,11 +8143,11 @@
       <c r="B88" s="11">
         <v>67</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="73"/>
       <c r="H88" s="14" t="s">
         <v>25</v>
       </c>
@@ -8131,11 +8158,11 @@
       <c r="B89" s="29">
         <v>68</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="65"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="73"/>
       <c r="H89" s="14" t="s">
         <v>25</v>
       </c>
@@ -8146,11 +8173,11 @@
       <c r="B90" s="11">
         <v>69</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="65"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="73"/>
       <c r="H90" s="14" t="s">
         <v>25</v>
       </c>
@@ -8161,11 +8188,11 @@
       <c r="B91" s="29">
         <v>70</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="65"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="73"/>
       <c r="H91" s="14" t="s">
         <v>25</v>
       </c>
@@ -8176,11 +8203,11 @@
       <c r="B92" s="11">
         <v>71</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="65"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
       <c r="H92" s="14" t="s">
         <v>25</v>
       </c>
@@ -8191,11 +8218,11 @@
       <c r="B93" s="29">
         <v>72</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="65"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="73"/>
       <c r="H93" s="14" t="s">
         <v>25</v>
       </c>
@@ -8206,11 +8233,11 @@
       <c r="B94" s="11">
         <v>73</v>
       </c>
-      <c r="C94" s="83"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="14" t="s">
         <v>25</v>
       </c>
@@ -8221,11 +8248,11 @@
       <c r="B95" s="29">
         <v>74</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="65"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="73"/>
       <c r="H95" s="14" t="s">
         <v>25</v>
       </c>
@@ -8236,11 +8263,11 @@
       <c r="B96" s="11">
         <v>75</v>
       </c>
-      <c r="C96" s="83"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="65"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="73"/>
       <c r="H96" s="14" t="s">
         <v>25</v>
       </c>
@@ -8251,11 +8278,11 @@
       <c r="B97" s="29">
         <v>76</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="65"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="73"/>
       <c r="H97" s="14" t="s">
         <v>25</v>
       </c>
@@ -8266,11 +8293,11 @@
       <c r="B98" s="11">
         <v>77</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="65"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
       <c r="H98" s="14" t="s">
         <v>25</v>
       </c>
@@ -8281,11 +8308,11 @@
       <c r="B99" s="29">
         <v>78</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="65"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="73"/>
       <c r="H99" s="14" t="s">
         <v>25</v>
       </c>
@@ -8296,11 +8323,11 @@
       <c r="B100" s="11">
         <v>79</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="73"/>
       <c r="H100" s="14" t="s">
         <v>25</v>
       </c>
@@ -8311,11 +8338,11 @@
       <c r="B101" s="29">
         <v>80</v>
       </c>
-      <c r="C101" s="83"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="65"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="73"/>
       <c r="H101" s="14" t="s">
         <v>25</v>
       </c>
@@ -8326,11 +8353,11 @@
       <c r="B102" s="11">
         <v>81</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="65"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="73"/>
       <c r="H102" s="14" t="s">
         <v>25</v>
       </c>
@@ -8341,11 +8368,11 @@
       <c r="B103" s="29">
         <v>82</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="65"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="73"/>
       <c r="H103" s="14" t="s">
         <v>25</v>
       </c>
@@ -8356,11 +8383,11 @@
       <c r="B104" s="11">
         <v>83</v>
       </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="65"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="73"/>
       <c r="H104" s="14" t="s">
         <v>25</v>
       </c>
@@ -8371,11 +8398,11 @@
       <c r="B105" s="29">
         <v>84</v>
       </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="65"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="73"/>
       <c r="H105" s="14" t="s">
         <v>25</v>
       </c>
@@ -8386,11 +8413,11 @@
       <c r="B106" s="11">
         <v>85</v>
       </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
       <c r="H106" s="14" t="s">
         <v>25</v>
       </c>
@@ -8401,11 +8428,11 @@
       <c r="B107" s="29">
         <v>86</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="65"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="73"/>
       <c r="H107" s="14" t="s">
         <v>25</v>
       </c>
@@ -8416,11 +8443,11 @@
       <c r="B108" s="11">
         <v>87</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="65"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="14" t="s">
         <v>25</v>
       </c>
@@ -8431,11 +8458,11 @@
       <c r="B109" s="29">
         <v>88</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="65"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="73"/>
       <c r="H109" s="14" t="s">
         <v>25</v>
       </c>
@@ -8446,11 +8473,11 @@
       <c r="B110" s="11">
         <v>89</v>
       </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="65"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
       <c r="H110" s="14" t="s">
         <v>25</v>
       </c>
@@ -8461,11 +8488,11 @@
       <c r="B111" s="29">
         <v>90</v>
       </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="73"/>
       <c r="H111" s="14" t="s">
         <v>25</v>
       </c>
@@ -8476,11 +8503,11 @@
       <c r="B112" s="11">
         <v>91</v>
       </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="14" t="s">
         <v>25</v>
       </c>
@@ -8491,11 +8518,11 @@
       <c r="B113" s="29">
         <v>92</v>
       </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="65"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="73"/>
       <c r="H113" s="14" t="s">
         <v>25</v>
       </c>
@@ -8506,11 +8533,11 @@
       <c r="B114" s="11">
         <v>93</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="65"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="73"/>
       <c r="H114" s="14" t="s">
         <v>25</v>
       </c>
@@ -8521,11 +8548,11 @@
       <c r="B115" s="29">
         <v>94</v>
       </c>
-      <c r="C115" s="83"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="65"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="73"/>
       <c r="H115" s="14" t="s">
         <v>25</v>
       </c>
@@ -8536,11 +8563,11 @@
       <c r="B116" s="11">
         <v>95</v>
       </c>
-      <c r="C116" s="83"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="65"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="73"/>
       <c r="H116" s="14" t="s">
         <v>25</v>
       </c>
@@ -8551,11 +8578,11 @@
       <c r="B117" s="29">
         <v>96</v>
       </c>
-      <c r="C117" s="83"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="65"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="73"/>
       <c r="H117" s="14" t="s">
         <v>25</v>
       </c>
@@ -8566,11 +8593,11 @@
       <c r="B118" s="11">
         <v>97</v>
       </c>
-      <c r="C118" s="83"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="73"/>
       <c r="H118" s="14" t="s">
         <v>25</v>
       </c>
@@ -8581,11 +8608,11 @@
       <c r="B119" s="29">
         <v>98</v>
       </c>
-      <c r="C119" s="83"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="65"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="73"/>
       <c r="H119" s="14" t="s">
         <v>25</v>
       </c>
@@ -8596,11 +8623,11 @@
       <c r="B120" s="11">
         <v>99</v>
       </c>
-      <c r="C120" s="83"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="65"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="73"/>
       <c r="H120" s="14" t="s">
         <v>25</v>
       </c>
@@ -8611,11 +8638,11 @@
       <c r="B121" s="29">
         <v>100</v>
       </c>
-      <c r="C121" s="83"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="64"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="65"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="72"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="73"/>
       <c r="H121" s="14" t="s">
         <v>25</v>
       </c>
@@ -10491,51 +10518,53 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:G117"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="C53:G53"/>
@@ -10560,53 +10589,51 @@
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H22:H121" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10635,7 +10662,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10643,7 +10670,8 @@
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="58" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
@@ -10655,17 +10683,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="3">
         <f>Requisitos!C11</f>
         <v>44802</v>
@@ -10673,17 +10701,17 @@
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44803</v>
@@ -10691,17 +10719,17 @@
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>44804</v>
@@ -10709,17 +10737,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -10727,17 +10755,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>44806</v>
@@ -10761,17 +10789,17 @@
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>44808</v>
@@ -10798,13 +10826,13 @@
       <c r="B9" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="7" t="s">
         <v>4</v>
       </c>
@@ -10897,12 +10925,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="15">
-        <v>0</v>
+      <c r="G12" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="I12" s="15">
         <v>0</v>
@@ -10919,12 +10953,18 @@
         <v>3</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="15">
-        <v>0</v>
+      <c r="G13" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="I13" s="15">
         <v>0</v>
@@ -10941,12 +10981,18 @@
         <v>4</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2</v>
+      </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="15">
-        <v>0</v>
+      <c r="G14" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="I14" s="15">
         <v>0</v>
@@ -10963,12 +11009,18 @@
         <v>5</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="15">
-        <v>0</v>
+      <c r="G15" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="I15" s="15">
         <v>0</v>
@@ -10981,12 +11033,18 @@
         <v>6</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="14">
+        <v>2</v>
+      </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="15">
-        <v>0</v>
+      <c r="G16" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="I16" s="15">
         <v>0</v>
@@ -10999,12 +11057,18 @@
         <v>7</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2</v>
+      </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="15">
-        <v>0</v>
+      <c r="G17" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="I17" s="15">
         <v>0</v>
@@ -11017,12 +11081,18 @@
         <v>8</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2</v>
+      </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="15">
-        <v>0</v>
+      <c r="G18" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="I18" s="15">
         <v>0</v>
@@ -11809,7 +11879,7 @@
       <c r="C62" s="37"/>
       <c r="D62" s="37">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
@@ -11826,24 +11896,24 @@
       <c r="B63" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="9" t="s">
         <v>54</v>
       </c>
@@ -11857,11 +11927,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>0</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -11877,11 +11947,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>0</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -11897,11 +11967,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>0</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -11917,11 +11987,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>0</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -11937,11 +12007,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>0</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -13397,17 +13467,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="3">
         <f>Requisitos!C12</f>
         <v>44816</v>
@@ -13415,17 +13485,17 @@
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44817</v>
@@ -13433,17 +13503,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>44818</v>
@@ -13451,17 +13521,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>44819</v>
@@ -13469,17 +13539,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>44820</v>
@@ -13502,18 +13572,18 @@
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="72" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Insira o nome de seu projeto aqui</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>44822</v>
@@ -13539,13 +13609,13 @@
       <c r="B9" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="7" t="s">
         <v>4</v>
       </c>
@@ -14732,24 +14802,24 @@
       <c r="B72" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="9" t="s">
         <v>54</v>
       </c>
@@ -14763,11 +14833,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>0</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -14783,11 +14853,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>0</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
       <c r="H75" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -14803,11 +14873,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>0</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -14823,11 +14893,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>0</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="73"/>
       <c r="H77" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -14843,11 +14913,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>0</v>
       </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="73"/>
       <c r="H78" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -16355,17 +16425,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="3">
         <f>Requisitos!C13</f>
         <v>44830</v>
@@ -16373,17 +16443,17 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>44831</v>
@@ -16391,17 +16461,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>44832</v>
@@ -16409,17 +16479,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>44833</v>
@@ -16427,17 +16497,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>44834</v>
@@ -16460,18 +16530,18 @@
     </row>
     <row r="7" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="72" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Insira o nome de seu projeto aqui</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>44836</v>
@@ -16497,13 +16567,13 @@
       <c r="B9" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="44" t="s">
         <v>4</v>
       </c>
@@ -17542,24 +17612,24 @@
       <c r="B63" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="9" t="s">
         <v>54</v>
       </c>
@@ -17573,11 +17643,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>0</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17593,11 +17663,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>0</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17613,11 +17683,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>0</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17633,11 +17703,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>0</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -17653,11 +17723,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>0</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -19374,17 +19444,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="3">
         <f>Requisitos!C14</f>
         <v>44851</v>
@@ -19392,17 +19462,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44852</v>
@@ -19410,17 +19480,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>44853</v>
@@ -19428,17 +19498,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>44854</v>
@@ -19446,17 +19516,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>44855</v>
@@ -19479,18 +19549,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="72" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Insira o nome de seu projeto aqui</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>44857</v>
@@ -19516,13 +19586,13 @@
       <c r="B9" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="44" t="s">
         <v>4</v>
       </c>
@@ -20547,24 +20617,24 @@
       <c r="B63" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="9" t="s">
         <v>54</v>
       </c>
@@ -20578,11 +20648,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>0</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -20598,11 +20668,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>0</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -20618,11 +20688,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>0</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -20638,11 +20708,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>0</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -20658,11 +20728,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>0</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -22238,17 +22308,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="3">
         <f>Requisitos!C15</f>
         <v>44865</v>
@@ -22256,17 +22326,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44866</v>
@@ -22274,17 +22344,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>44867</v>
@@ -22292,17 +22362,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>44868</v>
@@ -22310,17 +22380,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>44869</v>
@@ -22343,18 +22413,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="72" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Insira o nome de seu projeto aqui</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>44871</v>
@@ -22380,13 +22450,13 @@
       <c r="B9" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="44" t="s">
         <v>4</v>
       </c>
@@ -23411,24 +23481,24 @@
       <c r="B63" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="9" t="s">
         <v>54</v>
       </c>
@@ -23442,11 +23512,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>0</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -23462,11 +23532,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>0</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -23482,11 +23552,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>0</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -23502,11 +23572,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>0</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -23522,11 +23592,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>0</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -24840,6 +24910,12 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -24848,12 +24924,6 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="75" priority="1">
@@ -25102,17 +25172,17 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="3">
         <f>Requisitos!C16</f>
         <v>44879</v>
@@ -25120,17 +25190,17 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>44880</v>
@@ -25138,17 +25208,17 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>44881</v>
@@ -25156,17 +25226,17 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>44882</v>
@@ -25174,17 +25244,17 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>44883</v>
@@ -25207,18 +25277,18 @@
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="72" t="str">
+      <c r="B7" s="71" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Insira o nome de seu projeto aqui</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>44885</v>
@@ -25244,13 +25314,13 @@
       <c r="B9" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="44" t="s">
         <v>4</v>
       </c>
@@ -26275,24 +26345,24 @@
       <c r="B63" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="9" t="s">
         <v>54</v>
       </c>
@@ -26306,11 +26376,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>0</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="42">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -26326,11 +26396,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>0</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -26346,11 +26416,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>0</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -26366,11 +26436,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>0</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
       <c r="H68" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>0</v>
@@ -26386,11 +26456,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>0</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
       <c r="H69" s="42">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>

--- a/Documentacao/Sprints TIS III-noite-2sem2022.xlsx
+++ b/Documentacao/Sprints TIS III-noite-2sem2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\repository\plf-es-2022-2-ti3-6654100-studio-academia\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D879212-4862-49CC-9D3B-255AD7D91734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8081C94-F960-4D8B-8D47-3C1E29DD2E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="116">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -676,11 +676,6 @@
     <t>login no sistema</t>
   </si>
   <si>
-    <t>Marcos Felipe (back-end)
-Arthur Avelar (back-end)
-Arthur Alexi( front)</t>
-  </si>
-  <si>
     <t>30h</t>
   </si>
   <si>
@@ -716,6 +711,70 @@
   <si>
     <t>10h</t>
   </si>
+  <si>
+    <t>Marcos Felipe</t>
+  </si>
+  <si>
+    <t>Arthur Alex
+Ygor</t>
+  </si>
+  <si>
+    <t>Marcos Felipe (back-end)
+Arthur Avelar (Documentaçao)
+Arthur Alexi( front)
+Ygor (front)</t>
+  </si>
+  <si>
+    <t>Arthur Alexi( front)
+Ygor (front)</t>
+  </si>
+  <si>
+    <t>documentaçao</t>
+  </si>
+  <si>
+    <t>Arthur Avelar</t>
+  </si>
+  <si>
+    <t>Buscar Usuario</t>
+  </si>
+  <si>
+    <t>Remover Usuario</t>
+  </si>
+  <si>
+    <t>Editar Usuario</t>
+  </si>
+  <si>
+    <t>implementar no banco as modificaçoes</t>
+  </si>
+  <si>
+    <t>implementar cadastro de exercicios no backend (pesquisa, ediçao, cadastro, exclusão)</t>
+  </si>
+  <si>
+    <t>fazer a pagina do front do cadastro de exercicio(pesquisa, ediçao, cadastro, exclusão)</t>
+  </si>
+  <si>
+    <t>documentação</t>
+  </si>
+  <si>
+    <t>Ygor / Arthur Alexi</t>
+  </si>
+  <si>
+    <t>Marcos / Arthur Alexi
+(front e back)</t>
+  </si>
+  <si>
+    <t>Marcos / Arthur Alexi 
+(front e back)</t>
+  </si>
+  <si>
+    <t>implementar ficha de exercicio no backend (pesquisa, ediçao, cadastro, exclusão)</t>
+  </si>
+  <si>
+    <t>fazer a pagina do front da ficha de exercicio(pesquisa, ediçao, cadastro, exclusão, exibiçao para aluno e para admin)</t>
+  </si>
+  <si>
+    <t>7 e 8</t>
+  </si>
 </sst>
 </file>
 
@@ -725,7 +784,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mmm"/>
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mmm&quot;/&quot;yyyy&quot; &quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -873,6 +932,10 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -6773,8 +6836,8 @@
   </sheetPr>
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:G22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10660,9 +10723,9 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12:F18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10790,7 +10853,7 @@
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -10890,19 +10953,19 @@
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
@@ -10926,17 +10989,19 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="G12" s="54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="15">
         <v>0</v>
@@ -10954,17 +11019,19 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="14">
         <v>2</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="G13" s="54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="15">
         <v>0</v>
@@ -10982,17 +11049,19 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="14">
         <v>2</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="G14" s="54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14" s="15">
         <v>0</v>
@@ -11010,17 +11079,19 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="14">
         <v>2</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="G15" s="54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="15">
         <v>0</v>
@@ -11034,17 +11105,19 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="14">
         <v>2</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="G16" s="54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="15">
         <v>0</v>
@@ -11058,17 +11131,19 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="14">
         <v>2</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="G17" s="54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="15">
         <v>0</v>
@@ -11082,17 +11157,19 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="14">
         <v>2</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="G18" s="54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="15">
         <v>0</v>
@@ -11105,10 +11182,18 @@
         <v>9</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="54"/>
+      <c r="D19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>48</v>
+      </c>
       <c r="H19" s="15">
         <v>0</v>
       </c>
@@ -11879,13 +11964,13 @@
       <c r="C62" s="37"/>
       <c r="D62" s="37">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="56">
         <f>COUNTIFS(G11:G60, "Concluído",D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -13445,8 +13530,8 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -13664,10 +13749,18 @@
         <v>1</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="54"/>
+      <c r="D11" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="15">
         <v>0</v>
       </c>
@@ -13696,10 +13789,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="15">
         <v>0</v>
       </c>
@@ -13718,10 +13819,18 @@
         <v>3</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="54"/>
+      <c r="D13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>45</v>
+      </c>
       <c r="H13" s="15">
         <v>0</v>
       </c>
@@ -13740,10 +13849,18 @@
         <v>4</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="54"/>
+      <c r="D14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="13">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="H14" s="15">
         <v>0</v>
       </c>
@@ -13756,16 +13873,24 @@
         <v>44829</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="11">
         <v>5</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="54"/>
+      <c r="D15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="13">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="H15" s="15">
         <v>0</v>
       </c>
@@ -13781,10 +13906,18 @@
         <v>6</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="54"/>
+      <c r="D16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="13">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="H16" s="15">
         <v>0</v>
       </c>
@@ -13800,10 +13933,18 @@
         <v>7</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="54"/>
+      <c r="D17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="13">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="H17" s="15">
         <v>0</v>
       </c>
@@ -13819,10 +13960,18 @@
         <v>8</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="54"/>
+      <c r="D18" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" s="15">
         <v>0</v>
       </c>
@@ -13832,16 +13981,24 @@
       <c r="J18" s="13"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="11">
         <v>9</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="54"/>
+      <c r="D19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" s="15">
         <v>0</v>
       </c>
@@ -13857,10 +14014,18 @@
         <v>10</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="54"/>
+      <c r="D20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="H20" s="15">
         <v>0</v>
       </c>
@@ -13876,10 +14041,18 @@
         <v>11</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="54"/>
+      <c r="D21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" s="15">
         <v>0</v>
       </c>
@@ -14785,7 +14958,7 @@
       <c r="C71" s="37"/>
       <c r="D71" s="37">
         <f>COUNTIFS(D11:D60, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
@@ -16238,6 +16411,7 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="205" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$74),(F20))))</formula>
